--- a/Data/draw_result_power.xlsx
+++ b/Data/draw_result_power.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1018"/>
+  <dimension ref="A1:I1024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44215,6 +44215,264 @@
         </is>
       </c>
     </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1019" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G1019" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I1019" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1020" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G1020" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I1020" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1021" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G1021" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I1021" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1022" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G1022" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I1022" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1023" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G1023" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1024" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F1024" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G1024" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
